--- a/Attach/FactoryClient/精緻化報表.xlsx
+++ b/Attach/FactoryClient/精緻化報表.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>點單號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蘿蔔</t>
+    <t>素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肉片</t>
+    <t>香</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>貢丸</t>
-  </si>
-  <si>
-    <t>貢丸</t>
+    <t>大雞排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,43 +78,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <border>
         <left style="thin">
@@ -436,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,89 +416,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>61005</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>611</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:P10000">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($A2=INT($A2),NOT($A2=""))</formula>
     </cfRule>
   </conditionalFormatting>
